--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Card type.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Card type.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\Imports\sys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D28E67-3AF7-47D6-8D57-75EEA00D2C4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9800139-2695-42BE-B1DD-B495DF2463A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>company_code</t>
   </si>
@@ -80,13 +80,19 @@
   </si>
   <si>
     <t>ชื่อ ภาษาอังกฤษ ความยาวไม่เกิน 100  ตัว</t>
-  </si>
-  <si>
-    <t>เลขที่  (null)</t>
   </si>
   <si>
     <t>รหัส ประเภทบัตร
 ความยาวไม่เกิน 5 ตัว</t>
+  </si>
+  <si>
+    <t>เลขที่  (null)  ตัวเลขเท่านั้น</t>
+  </si>
+  <si>
+    <t>เป็นค่าว่างได้</t>
+  </si>
+  <si>
+    <t>เพิ่มข้อมูล ต้องไม่เป็นค่าว่าง</t>
   </si>
 </sst>
 </file>
@@ -163,7 +169,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -179,6 +185,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -514,15 +523,17 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.54296875" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="25.81640625" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="32.36328125" customWidth="1"/>
     <col min="5" max="5" width="32.08984375" customWidth="1"/>
-    <col min="8" max="10" width="20.1796875" customWidth="1"/>
+    <col min="7" max="8" width="25.7265625" customWidth="1"/>
+    <col min="9" max="10" width="20.1796875" customWidth="1"/>
     <col min="11" max="11" width="21.7265625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -531,10 +542,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>16</v>
@@ -542,6 +553,8 @@
       <c r="E1" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:16" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -559,6 +572,12 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -590,8 +609,6 @@
         <v>11</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -616,8 +633,6 @@
         <v>13</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -641,6 +656,9 @@
       <c r="P6" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Card type.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Card type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9800139-2695-42BE-B1DD-B495DF2463A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75671788-2511-43DF-AEF9-BC2A3363B527}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -471,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE83D22-C3E2-486C-B25F-AC3CCEA5E252}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.26953125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -513,6 +513,27 @@
       <c r="O1"/>
       <c r="P1"/>
     </row>
+    <row r="2" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+    </row>
+    <row r="3" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+    </row>
+    <row r="4" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -522,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860B0A84-693A-41BE-80ED-7BDD57CCAFEE}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.54296875" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Card type.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Card type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75671788-2511-43DF-AEF9-BC2A3363B527}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB804CA-A831-4E78-8366-24A642FF9A32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -26,16 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
-  <si>
-    <t>company_code</t>
-  </si>
-  <si>
-    <t>OPR</t>
-  </si>
-  <si>
-    <t>รหัสบริษัท</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>cardtype_code</t>
   </si>
@@ -471,36 +462,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE83D22-C3E2-486C-B25F-AC3CCEA5E252}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.26953125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="18.26953125" style="1"/>
-    <col min="4" max="4" width="23.26953125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.08984375" style="1" customWidth="1"/>
-    <col min="6" max="16" width="18.26953125" style="1"/>
+    <col min="1" max="2" width="18.26953125" style="1"/>
+    <col min="3" max="3" width="23.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.08984375" style="1" customWidth="1"/>
+    <col min="5" max="15" width="18.26953125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
       <c r="H1"/>
@@ -511,28 +500,27 @@
       <c r="M1"/>
       <c r="N1"/>
       <c r="O1"/>
-      <c r="P1"/>
-    </row>
-    <row r="2" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>
-      <c r="P2"/>
-    </row>
-    <row r="3" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
-      <c r="P3"/>
-    </row>
-    <row r="4" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4"/>
-      <c r="P4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -541,95 +529,84 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860B0A84-693A-41BE-80ED-7BDD57CCAFEE}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.54296875" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25.81640625" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="32.36328125" customWidth="1"/>
-    <col min="5" max="5" width="32.08984375" customWidth="1"/>
-    <col min="7" max="8" width="25.7265625" customWidth="1"/>
-    <col min="9" max="10" width="20.1796875" customWidth="1"/>
-    <col min="11" max="11" width="21.7265625" customWidth="1"/>
+    <col min="1" max="1" width="25.81640625" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="32.36328125" customWidth="1"/>
+    <col min="4" max="4" width="32.08984375" customWidth="1"/>
+    <col min="6" max="7" width="25.7265625" customWidth="1"/>
+    <col min="8" max="9" width="20.1796875" customWidth="1"/>
+    <col min="10" max="10" width="21.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:16" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -637,23 +614,20 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -661,24 +635,22 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
